--- a/data/pca/factorExposure/factorExposure_2012-06-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-15.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01750035390108188</v>
+        <v>0.02209516469289602</v>
       </c>
       <c r="C2">
-        <v>-0.02661902037276015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02204943899983885</v>
+      </c>
+      <c r="D2">
+        <v>-0.001258617325179465</v>
+      </c>
+      <c r="E2">
+        <v>-0.02506123031267492</v>
+      </c>
+      <c r="F2">
+        <v>0.00584684255783484</v>
+      </c>
+      <c r="G2">
+        <v>-0.007952576443349714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06701249292262589</v>
+        <v>0.0769899763927779</v>
       </c>
       <c r="C4">
-        <v>-0.06554142074024064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.041659154341556</v>
+      </c>
+      <c r="D4">
+        <v>0.07001116839375246</v>
+      </c>
+      <c r="E4">
+        <v>0.0005260525465540865</v>
+      </c>
+      <c r="F4">
+        <v>0.03311371381104913</v>
+      </c>
+      <c r="G4">
+        <v>0.00882390191856223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09489120237513274</v>
+        <v>0.1157450910875059</v>
       </c>
       <c r="C6">
-        <v>-0.07260198187454386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04573602045910502</v>
+      </c>
+      <c r="D6">
+        <v>0.01272620969181108</v>
+      </c>
+      <c r="E6">
+        <v>0.001528831100754857</v>
+      </c>
+      <c r="F6">
+        <v>0.05207289698358047</v>
+      </c>
+      <c r="G6">
+        <v>-0.00898046877507111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04423409188843465</v>
+        <v>0.05514892409292618</v>
       </c>
       <c r="C7">
-        <v>-0.03534615268881145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02452476610588231</v>
+      </c>
+      <c r="D7">
+        <v>0.03652623778110182</v>
+      </c>
+      <c r="E7">
+        <v>-0.02013218179077854</v>
+      </c>
+      <c r="F7">
+        <v>0.03182337167132401</v>
+      </c>
+      <c r="G7">
+        <v>0.04363766273373819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03099257009190003</v>
+        <v>0.0348213997669674</v>
       </c>
       <c r="C8">
-        <v>-0.03060379761715216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01857973455613595</v>
+      </c>
+      <c r="D8">
+        <v>0.0369237721117559</v>
+      </c>
+      <c r="E8">
+        <v>-0.00687214871687876</v>
+      </c>
+      <c r="F8">
+        <v>0.05311130592922666</v>
+      </c>
+      <c r="G8">
+        <v>-0.02721553047604113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06152899713161604</v>
+        <v>0.07185806728004196</v>
       </c>
       <c r="C9">
-        <v>-0.04997048556902626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02931669123900734</v>
+      </c>
+      <c r="D9">
+        <v>0.0684464546962376</v>
+      </c>
+      <c r="E9">
+        <v>-0.01599955925809374</v>
+      </c>
+      <c r="F9">
+        <v>0.04045289725857805</v>
+      </c>
+      <c r="G9">
+        <v>0.002314273175288677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02584023002495507</v>
+        <v>0.03915817732463721</v>
       </c>
       <c r="C10">
-        <v>-0.03797515642902236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04135907816666256</v>
+      </c>
+      <c r="D10">
+        <v>-0.1820814161898845</v>
+      </c>
+      <c r="E10">
+        <v>-0.04745797060776254</v>
+      </c>
+      <c r="F10">
+        <v>0.0321902278380561</v>
+      </c>
+      <c r="G10">
+        <v>0.04087090818206018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06605406604457599</v>
+        <v>0.07468149552419449</v>
       </c>
       <c r="C11">
-        <v>-0.05434006650680538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.0299203192677878</v>
+      </c>
+      <c r="D11">
+        <v>0.0673843857538952</v>
+      </c>
+      <c r="E11">
+        <v>0.01011837199732418</v>
+      </c>
+      <c r="F11">
+        <v>0.03478747267870354</v>
+      </c>
+      <c r="G11">
+        <v>0.01713869713300249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05108565767189145</v>
+        <v>0.06140277951439401</v>
       </c>
       <c r="C12">
-        <v>-0.05375064274393485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03518721459772431</v>
+      </c>
+      <c r="D12">
+        <v>0.05082120194879147</v>
+      </c>
+      <c r="E12">
+        <v>-0.01083054467180577</v>
+      </c>
+      <c r="F12">
+        <v>0.02872469314215684</v>
+      </c>
+      <c r="G12">
+        <v>0.01859274407212907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05647671816147959</v>
+        <v>0.06292244344748607</v>
       </c>
       <c r="C13">
-        <v>-0.05508648728282192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03178265484022391</v>
+      </c>
+      <c r="D13">
+        <v>0.04926459509194944</v>
+      </c>
+      <c r="E13">
+        <v>-0.004746092385861319</v>
+      </c>
+      <c r="F13">
+        <v>0.0188631407207852</v>
+      </c>
+      <c r="G13">
+        <v>0.001671527738318284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03111813119400603</v>
+        <v>0.03749679373130908</v>
       </c>
       <c r="C14">
-        <v>-0.02876300064028533</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01971055296925775</v>
+      </c>
+      <c r="D14">
+        <v>0.009268073204363797</v>
+      </c>
+      <c r="E14">
+        <v>-0.009470535915341912</v>
+      </c>
+      <c r="F14">
+        <v>0.01267374890118608</v>
+      </c>
+      <c r="G14">
+        <v>-0.00392386895526813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03858232987625845</v>
+        <v>0.04051081738955427</v>
       </c>
       <c r="C15">
-        <v>-0.01471426022313549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003005053714407975</v>
+      </c>
+      <c r="D15">
+        <v>0.01599078895359959</v>
+      </c>
+      <c r="E15">
+        <v>-0.03811811428516809</v>
+      </c>
+      <c r="F15">
+        <v>-0.0001564796262491774</v>
+      </c>
+      <c r="G15">
+        <v>-0.0208761099540995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05559919074796773</v>
+        <v>0.06252803559368368</v>
       </c>
       <c r="C16">
-        <v>-0.04822652632401207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02772672485526156</v>
+      </c>
+      <c r="D16">
+        <v>0.06009998414184195</v>
+      </c>
+      <c r="E16">
+        <v>0.0002158612599894643</v>
+      </c>
+      <c r="F16">
+        <v>0.03069995041667083</v>
+      </c>
+      <c r="G16">
+        <v>0.006441379953057776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0601561650644775</v>
+        <v>0.0617508774172957</v>
       </c>
       <c r="C20">
-        <v>-0.04066983521672318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0175628135697218</v>
+      </c>
+      <c r="D20">
+        <v>0.04924663699045733</v>
+      </c>
+      <c r="E20">
+        <v>-0.0155965961401128</v>
+      </c>
+      <c r="F20">
+        <v>0.02742852867361665</v>
+      </c>
+      <c r="G20">
+        <v>0.01861648681431058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02516778395160356</v>
+        <v>0.02308839056472537</v>
       </c>
       <c r="C21">
-        <v>-0.002372968759124254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.008526285487313169</v>
+      </c>
+      <c r="D21">
+        <v>0.02935641579108118</v>
+      </c>
+      <c r="E21">
+        <v>-0.08786321102838189</v>
+      </c>
+      <c r="F21">
+        <v>-0.002720080176990381</v>
+      </c>
+      <c r="G21">
+        <v>-0.01398918490312304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06505067035312792</v>
+        <v>0.0624748770123515</v>
       </c>
       <c r="C22">
-        <v>-0.07699147353039426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04445581324137084</v>
+      </c>
+      <c r="D22">
+        <v>0.1056827597738913</v>
+      </c>
+      <c r="E22">
+        <v>-0.6093536195812587</v>
+      </c>
+      <c r="F22">
+        <v>-0.1441749745558202</v>
+      </c>
+      <c r="G22">
+        <v>0.03652800753300457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06569707251589683</v>
+        <v>0.06313427843737145</v>
       </c>
       <c r="C23">
-        <v>-0.0766281614479772</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04395414872030673</v>
+      </c>
+      <c r="D23">
+        <v>0.1065720875696968</v>
+      </c>
+      <c r="E23">
+        <v>-0.6086547193053169</v>
+      </c>
+      <c r="F23">
+        <v>-0.1437638649930456</v>
+      </c>
+      <c r="G23">
+        <v>0.0345970173567768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06306215068546663</v>
+        <v>0.07420352394274014</v>
       </c>
       <c r="C24">
-        <v>-0.05627136606969298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03335516674045149</v>
+      </c>
+      <c r="D24">
+        <v>0.06488681677484161</v>
+      </c>
+      <c r="E24">
+        <v>-0.007586569210872719</v>
+      </c>
+      <c r="F24">
+        <v>0.04266971644327812</v>
+      </c>
+      <c r="G24">
+        <v>0.007379925455557766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06252797578761589</v>
+        <v>0.0723303418313445</v>
       </c>
       <c r="C25">
-        <v>-0.06093615588479489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03791803743680342</v>
+      </c>
+      <c r="D25">
+        <v>0.0631902763615441</v>
+      </c>
+      <c r="E25">
+        <v>-0.01039930543843867</v>
+      </c>
+      <c r="F25">
+        <v>0.03932133273632973</v>
+      </c>
+      <c r="G25">
+        <v>-0.002503813674980822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.036919546431271</v>
+        <v>0.0402854647921457</v>
       </c>
       <c r="C26">
-        <v>-0.01596464799765883</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005691441883863479</v>
+      </c>
+      <c r="D26">
+        <v>0.02218265049193144</v>
+      </c>
+      <c r="E26">
+        <v>-0.0358406075026196</v>
+      </c>
+      <c r="F26">
+        <v>0.01946567328254475</v>
+      </c>
+      <c r="G26">
+        <v>0.01581702769983543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04651364119318585</v>
+        <v>0.07315536599920748</v>
       </c>
       <c r="C28">
-        <v>-0.07336466654134864</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07861415567149795</v>
+      </c>
+      <c r="D28">
+        <v>-0.3232348984849397</v>
+      </c>
+      <c r="E28">
+        <v>-0.04086188073349534</v>
+      </c>
+      <c r="F28">
+        <v>0.04490476106594938</v>
+      </c>
+      <c r="G28">
+        <v>-0.02524796938007935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03431374148894453</v>
+        <v>0.04314170711986848</v>
       </c>
       <c r="C29">
-        <v>-0.03197934584658155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02400796744420864</v>
+      </c>
+      <c r="D29">
+        <v>0.01032789139528432</v>
+      </c>
+      <c r="E29">
+        <v>-0.03543907852279669</v>
+      </c>
+      <c r="F29">
+        <v>0.01019816141479325</v>
+      </c>
+      <c r="G29">
+        <v>0.01538726231500915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1130987330632004</v>
+        <v>0.1311780700571092</v>
       </c>
       <c r="C30">
-        <v>-0.1061455835237913</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06596523285719944</v>
+      </c>
+      <c r="D30">
+        <v>0.09566440666048436</v>
+      </c>
+      <c r="E30">
+        <v>-0.04057263900208954</v>
+      </c>
+      <c r="F30">
+        <v>0.02871538776527954</v>
+      </c>
+      <c r="G30">
+        <v>-0.01240098857367415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03694913917615297</v>
+        <v>0.04291845936061306</v>
       </c>
       <c r="C31">
-        <v>-0.02515505356744311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01403046210247564</v>
+      </c>
+      <c r="D31">
+        <v>0.02858132838289443</v>
+      </c>
+      <c r="E31">
+        <v>-0.02012458182666592</v>
+      </c>
+      <c r="F31">
+        <v>0.01058726836139639</v>
+      </c>
+      <c r="G31">
+        <v>0.02351070225493016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03140755610783398</v>
+        <v>0.03221547042026752</v>
       </c>
       <c r="C32">
-        <v>-0.02455989424788831</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01386938530907201</v>
+      </c>
+      <c r="D32">
+        <v>0.01439712042642506</v>
+      </c>
+      <c r="E32">
+        <v>-0.06536365334309877</v>
+      </c>
+      <c r="F32">
+        <v>-0.002904871386260478</v>
+      </c>
+      <c r="G32">
+        <v>-0.02863673437158769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07232413601188536</v>
+        <v>0.08772415984005931</v>
       </c>
       <c r="C33">
-        <v>-0.05730603117676004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03505797616744415</v>
+      </c>
+      <c r="D33">
+        <v>0.06209193982618716</v>
+      </c>
+      <c r="E33">
+        <v>-0.0128587469044948</v>
+      </c>
+      <c r="F33">
+        <v>0.009336628128985338</v>
+      </c>
+      <c r="G33">
+        <v>0.01368676396740641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04971282631634042</v>
+        <v>0.05728519503838845</v>
       </c>
       <c r="C34">
-        <v>-0.03634136145767192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01852217319801145</v>
+      </c>
+      <c r="D34">
+        <v>0.0604689279689893</v>
+      </c>
+      <c r="E34">
+        <v>-0.003454212106333346</v>
+      </c>
+      <c r="F34">
+        <v>0.02514202810113642</v>
+      </c>
+      <c r="G34">
+        <v>0.002005037050106972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03550532141593781</v>
+        <v>0.03989973245904892</v>
       </c>
       <c r="C35">
-        <v>-0.01366090515622105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.004908603940462225</v>
+      </c>
+      <c r="D35">
+        <v>0.01222487530676536</v>
+      </c>
+      <c r="E35">
+        <v>-0.0233601043396862</v>
+      </c>
+      <c r="F35">
+        <v>-0.002274527489178741</v>
+      </c>
+      <c r="G35">
+        <v>0.01295425344246886</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0172284915527072</v>
+        <v>0.02332039729024123</v>
       </c>
       <c r="C36">
-        <v>-0.01799619644269541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01207726655658277</v>
+      </c>
+      <c r="D36">
+        <v>0.01993630773512412</v>
+      </c>
+      <c r="E36">
+        <v>-0.03394985469719491</v>
+      </c>
+      <c r="F36">
+        <v>0.0186014962331128</v>
+      </c>
+      <c r="G36">
+        <v>0.0140545428399163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03812621592955134</v>
+        <v>0.04073387184317116</v>
       </c>
       <c r="C38">
-        <v>-0.01106695167843204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001845484486440555</v>
+      </c>
+      <c r="D38">
+        <v>0.01336795530519087</v>
+      </c>
+      <c r="E38">
+        <v>-0.0585369827547085</v>
+      </c>
+      <c r="F38">
+        <v>-0.02195510593361776</v>
+      </c>
+      <c r="G38">
+        <v>-0.01777083573793653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08515147544958171</v>
+        <v>0.1007033965491681</v>
       </c>
       <c r="C39">
-        <v>-0.08923545544392091</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05704060903123272</v>
+      </c>
+      <c r="D39">
+        <v>0.08551793747506051</v>
+      </c>
+      <c r="E39">
+        <v>0.01240017853797907</v>
+      </c>
+      <c r="F39">
+        <v>0.02224423981858379</v>
+      </c>
+      <c r="G39">
+        <v>-0.02394874596398604</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0634998913594675</v>
+        <v>0.07210689617631631</v>
       </c>
       <c r="C40">
-        <v>-0.05755959455273239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.0352385582836842</v>
+      </c>
+      <c r="D40">
+        <v>0.01263969208408657</v>
+      </c>
+      <c r="E40">
+        <v>-0.02522736071351885</v>
+      </c>
+      <c r="F40">
+        <v>-0.04396459639395582</v>
+      </c>
+      <c r="G40">
+        <v>-0.05899802264179096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03820409859469238</v>
+        <v>0.04288871755833584</v>
       </c>
       <c r="C41">
-        <v>-0.01846141688978486</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.007634485555632073</v>
+      </c>
+      <c r="D41">
+        <v>0.04088590333143943</v>
+      </c>
+      <c r="E41">
+        <v>-0.006234737041663975</v>
+      </c>
+      <c r="F41">
+        <v>-0.006324203210248704</v>
+      </c>
+      <c r="G41">
+        <v>-0.0104121540258075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04136138922252437</v>
+        <v>0.05085432784602408</v>
       </c>
       <c r="C43">
-        <v>-0.03781905283788281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02280817019362643</v>
+      </c>
+      <c r="D43">
+        <v>0.02926673709098771</v>
+      </c>
+      <c r="E43">
+        <v>-0.0171031590730332</v>
+      </c>
+      <c r="F43">
+        <v>0.01453123408301287</v>
+      </c>
+      <c r="G43">
+        <v>0.01166070459234564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08786510618221954</v>
+        <v>0.09246986369564943</v>
       </c>
       <c r="C44">
-        <v>-0.09974204613044572</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06275172428438193</v>
+      </c>
+      <c r="D44">
+        <v>0.05579612441470742</v>
+      </c>
+      <c r="E44">
+        <v>-0.1083333843520253</v>
+      </c>
+      <c r="F44">
+        <v>0.07165650735675394</v>
+      </c>
+      <c r="G44">
+        <v>-0.0157632422910219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0265247190879619</v>
+        <v>0.02801567410578183</v>
       </c>
       <c r="C46">
-        <v>-0.01788808445958456</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.008441795352988482</v>
+      </c>
+      <c r="D46">
+        <v>0.03416696276656915</v>
+      </c>
+      <c r="E46">
+        <v>-0.01580779801161422</v>
+      </c>
+      <c r="F46">
+        <v>0.01761376624955123</v>
+      </c>
+      <c r="G46">
+        <v>-0.005359279589578611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0269445725958746</v>
+        <v>0.0300909728439706</v>
       </c>
       <c r="C47">
-        <v>-0.02130455440167103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01277629701511072</v>
+      </c>
+      <c r="D47">
+        <v>0.0164315344810185</v>
+      </c>
+      <c r="E47">
+        <v>-0.04715484301951944</v>
+      </c>
+      <c r="F47">
+        <v>0.01318864548666125</v>
+      </c>
+      <c r="G47">
+        <v>0.0265531422929398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02632461492225756</v>
+        <v>0.03079704560951373</v>
       </c>
       <c r="C48">
-        <v>-0.02144425626737223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01237402849750085</v>
+      </c>
+      <c r="D48">
+        <v>0.03199480223504012</v>
+      </c>
+      <c r="E48">
+        <v>-0.0413711613437035</v>
+      </c>
+      <c r="F48">
+        <v>0.01635878910125817</v>
+      </c>
+      <c r="G48">
+        <v>0.001194673565222752</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1480990020989177</v>
+        <v>0.1753519391632018</v>
       </c>
       <c r="C49">
-        <v>-0.09697316767579699</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05396737842559831</v>
+      </c>
+      <c r="D49">
+        <v>0.01290572495930658</v>
+      </c>
+      <c r="E49">
+        <v>0.1354327419171868</v>
+      </c>
+      <c r="F49">
+        <v>0.02236920224091446</v>
+      </c>
+      <c r="G49">
+        <v>0.05951140701918103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03219328879123127</v>
+        <v>0.04129354951339798</v>
       </c>
       <c r="C50">
-        <v>-0.02874115884943861</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02104713768749417</v>
+      </c>
+      <c r="D50">
+        <v>0.03640659327678341</v>
+      </c>
+      <c r="E50">
+        <v>-0.04302598208476209</v>
+      </c>
+      <c r="F50">
+        <v>0.02487476253517557</v>
+      </c>
+      <c r="G50">
+        <v>0.02405251954036425</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02396519625609357</v>
+        <v>0.0265918920055091</v>
       </c>
       <c r="C51">
-        <v>-0.01637728713782377</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.009180481856100342</v>
+      </c>
+      <c r="D51">
+        <v>0.02640850846045834</v>
+      </c>
+      <c r="E51">
+        <v>-0.01468462078826923</v>
+      </c>
+      <c r="F51">
+        <v>0.007786917925790192</v>
+      </c>
+      <c r="G51">
+        <v>-0.004693235252981771</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.135327505812995</v>
+        <v>0.1576479263344233</v>
       </c>
       <c r="C53">
-        <v>-0.1044728885465561</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06799540656879033</v>
+      </c>
+      <c r="D53">
+        <v>0.02323728331701687</v>
+      </c>
+      <c r="E53">
+        <v>0.03926254069786147</v>
+      </c>
+      <c r="F53">
+        <v>0.0196129572095095</v>
+      </c>
+      <c r="G53">
+        <v>-0.003312206705219442</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05035938126962886</v>
+        <v>0.05417442043692457</v>
       </c>
       <c r="C54">
-        <v>-0.02971289573157742</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01205660318009933</v>
+      </c>
+      <c r="D54">
+        <v>0.03528923430017289</v>
+      </c>
+      <c r="E54">
+        <v>-0.04079497736092207</v>
+      </c>
+      <c r="F54">
+        <v>0.01453881092824506</v>
+      </c>
+      <c r="G54">
+        <v>-0.002872779256157096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08971860493644708</v>
+        <v>0.09875840768020752</v>
       </c>
       <c r="C55">
-        <v>-0.06921948788856343</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04318086270464315</v>
+      </c>
+      <c r="D55">
+        <v>0.03280630171399776</v>
+      </c>
+      <c r="E55">
+        <v>-0.007511205679514652</v>
+      </c>
+      <c r="F55">
+        <v>0.0191939299014592</v>
+      </c>
+      <c r="G55">
+        <v>-0.007964081904072351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1324486164770385</v>
+        <v>0.1567393949853895</v>
       </c>
       <c r="C56">
-        <v>-0.1147039730023605</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07734202427104625</v>
+      </c>
+      <c r="D56">
+        <v>0.02078022331485224</v>
+      </c>
+      <c r="E56">
+        <v>0.03963101399093629</v>
+      </c>
+      <c r="F56">
+        <v>0.05049073513924473</v>
+      </c>
+      <c r="G56">
+        <v>0.01479469272982843</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1106600767788011</v>
+        <v>0.1015236581310378</v>
       </c>
       <c r="C58">
-        <v>-0.03629161076877383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.00383283109838632</v>
+      </c>
+      <c r="D58">
+        <v>0.05503898605035489</v>
+      </c>
+      <c r="E58">
+        <v>-0.1876700794538784</v>
+      </c>
+      <c r="F58">
+        <v>0.03798313129616621</v>
+      </c>
+      <c r="G58">
+        <v>0.05731872180214372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.09950208372200417</v>
+        <v>0.1449519164670626</v>
       </c>
       <c r="C59">
-        <v>-0.08982479553326252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.09193746685534475</v>
+      </c>
+      <c r="D59">
+        <v>-0.3514974023010444</v>
+      </c>
+      <c r="E59">
+        <v>-0.04843821860935598</v>
+      </c>
+      <c r="F59">
+        <v>-0.02598881689687524</v>
+      </c>
+      <c r="G59">
+        <v>0.03034215961057126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1788669687346331</v>
+        <v>0.2161632197319072</v>
       </c>
       <c r="C60">
-        <v>-0.1261495459815337</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.08234444885991905</v>
+      </c>
+      <c r="D60">
+        <v>0.01637097135310523</v>
+      </c>
+      <c r="E60">
+        <v>0.06957511857140655</v>
+      </c>
+      <c r="F60">
+        <v>0.04032708610309924</v>
+      </c>
+      <c r="G60">
+        <v>-0.02189674592853281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07292070606044779</v>
+        <v>0.08525349918204496</v>
       </c>
       <c r="C61">
-        <v>-0.06576288420296497</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04126285407982518</v>
+      </c>
+      <c r="D61">
+        <v>0.06514842081818581</v>
+      </c>
+      <c r="E61">
+        <v>0.01842115630311497</v>
+      </c>
+      <c r="F61">
+        <v>0.01042794754089491</v>
+      </c>
+      <c r="G61">
+        <v>0.01668745563189349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1126901223403075</v>
+        <v>0.1377442009577028</v>
       </c>
       <c r="C62">
-        <v>-0.0893216638152038</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.06005425767691493</v>
+      </c>
+      <c r="D62">
+        <v>0.02492466135572361</v>
+      </c>
+      <c r="E62">
+        <v>0.05178429695167959</v>
+      </c>
+      <c r="F62">
+        <v>0.02157098450631777</v>
+      </c>
+      <c r="G62">
+        <v>-0.02759865905371688</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04852759355496525</v>
+        <v>0.05155976851090931</v>
       </c>
       <c r="C63">
-        <v>-0.03320183574274734</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01755751747033055</v>
+      </c>
+      <c r="D63">
+        <v>0.03248001536369781</v>
+      </c>
+      <c r="E63">
+        <v>-0.04807034844585312</v>
+      </c>
+      <c r="F63">
+        <v>0.01085060886569691</v>
+      </c>
+      <c r="G63">
+        <v>-0.02579018884984513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1045041603617068</v>
+        <v>0.1116360573988803</v>
       </c>
       <c r="C64">
-        <v>-0.05102715312635713</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01865592186867472</v>
+      </c>
+      <c r="D64">
+        <v>0.04524732464812906</v>
+      </c>
+      <c r="E64">
+        <v>-0.03094963362792225</v>
+      </c>
+      <c r="F64">
+        <v>0.05789423476652927</v>
+      </c>
+      <c r="G64">
+        <v>-0.0193090269644834</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.106710298807138</v>
+        <v>0.1236679544110036</v>
       </c>
       <c r="C65">
-        <v>-0.07112531311190805</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04279707258410238</v>
+      </c>
+      <c r="D65">
+        <v>0.009788528516486957</v>
+      </c>
+      <c r="E65">
+        <v>-0.005675608633865318</v>
+      </c>
+      <c r="F65">
+        <v>0.06223776837309633</v>
+      </c>
+      <c r="G65">
+        <v>-0.025378896965476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1309168019584359</v>
+        <v>0.1515126535236512</v>
       </c>
       <c r="C66">
-        <v>-0.1000223090429278</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05674857061496743</v>
+      </c>
+      <c r="D66">
+        <v>0.1189079101371381</v>
+      </c>
+      <c r="E66">
+        <v>0.0564739619945057</v>
+      </c>
+      <c r="F66">
+        <v>0.04789727124589341</v>
+      </c>
+      <c r="G66">
+        <v>-0.02352110298890121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06900082489972231</v>
+        <v>0.07513280100333908</v>
       </c>
       <c r="C67">
-        <v>-0.02533275928889437</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.008221511385472799</v>
+      </c>
+      <c r="D67">
+        <v>0.02534340541173513</v>
+      </c>
+      <c r="E67">
+        <v>-0.02549297367107086</v>
+      </c>
+      <c r="F67">
+        <v>-0.0009371145467541208</v>
+      </c>
+      <c r="G67">
+        <v>0.003454759416464344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04975029117560972</v>
+        <v>0.06678590558359605</v>
       </c>
       <c r="C68">
-        <v>-0.04890426646938649</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05174415235198974</v>
+      </c>
+      <c r="D68">
+        <v>-0.2661863733004575</v>
+      </c>
+      <c r="E68">
+        <v>-0.04837488241166682</v>
+      </c>
+      <c r="F68">
+        <v>0.006657887370845952</v>
+      </c>
+      <c r="G68">
+        <v>0.007839733426337696</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04956898063089588</v>
+        <v>0.05104744781871665</v>
       </c>
       <c r="C69">
-        <v>-0.02688566544347574</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.009767335344160877</v>
+      </c>
+      <c r="D69">
+        <v>0.0343760149567508</v>
+      </c>
+      <c r="E69">
+        <v>-0.01945002436217396</v>
+      </c>
+      <c r="F69">
+        <v>-0.0004724365691493006</v>
+      </c>
+      <c r="G69">
+        <v>0.006578546036909943</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.004785582274269811</v>
+        <v>0.01568163059541617</v>
       </c>
       <c r="C70">
-        <v>0.002485323294389304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0002995989985024404</v>
+      </c>
+      <c r="D70">
+        <v>-0.006986596350594328</v>
+      </c>
+      <c r="E70">
+        <v>0.0231152295005117</v>
+      </c>
+      <c r="F70">
+        <v>0.01440956510158832</v>
+      </c>
+      <c r="G70">
+        <v>0.01736668687930274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05293653734418073</v>
+        <v>0.07061710509225347</v>
       </c>
       <c r="C71">
-        <v>-0.04811557479374282</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05124836259314638</v>
+      </c>
+      <c r="D71">
+        <v>-0.2995423297707734</v>
+      </c>
+      <c r="E71">
+        <v>-0.04695842827586889</v>
+      </c>
+      <c r="F71">
+        <v>0.02943843527469561</v>
+      </c>
+      <c r="G71">
+        <v>0.005913976411946087</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1290583672232682</v>
+        <v>0.1547498934084462</v>
       </c>
       <c r="C72">
-        <v>-0.08105401983693207</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04854054108772932</v>
+      </c>
+      <c r="D72">
+        <v>0.009364782028758343</v>
+      </c>
+      <c r="E72">
+        <v>0.0916347011468077</v>
+      </c>
+      <c r="F72">
+        <v>-0.153089938799168</v>
+      </c>
+      <c r="G72">
+        <v>-0.1254305507399577</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2395059712139702</v>
+        <v>0.2724170919222126</v>
       </c>
       <c r="C73">
-        <v>-0.1530649685219316</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.08363821660275871</v>
+      </c>
+      <c r="D73">
+        <v>0.07160996813349849</v>
+      </c>
+      <c r="E73">
+        <v>0.1888786056371598</v>
+      </c>
+      <c r="F73">
+        <v>0.06964122369342812</v>
+      </c>
+      <c r="G73">
+        <v>0.2119050580410468</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07151142773109503</v>
+        <v>0.08873720153118848</v>
       </c>
       <c r="C74">
-        <v>-0.08571904892642972</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06387780919144675</v>
+      </c>
+      <c r="D74">
+        <v>0.03610575616315878</v>
+      </c>
+      <c r="E74">
+        <v>0.007246330769347868</v>
+      </c>
+      <c r="F74">
+        <v>-0.008410110575800019</v>
+      </c>
+      <c r="G74">
+        <v>0.02268109373875353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09118861017674336</v>
+        <v>0.1040094945033021</v>
       </c>
       <c r="C75">
-        <v>-0.07002111823254566</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03866726004800305</v>
+      </c>
+      <c r="D75">
+        <v>0.01625640874569226</v>
+      </c>
+      <c r="E75">
+        <v>-0.004800328021114074</v>
+      </c>
+      <c r="F75">
+        <v>0.05654805789621895</v>
+      </c>
+      <c r="G75">
+        <v>0.01630395169569687</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1134227043675941</v>
+        <v>0.1316461993107369</v>
       </c>
       <c r="C76">
-        <v>-0.1030941332895269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06782638952512335</v>
+      </c>
+      <c r="D76">
+        <v>0.0589939405972348</v>
+      </c>
+      <c r="E76">
+        <v>-0.007791863580995735</v>
+      </c>
+      <c r="F76">
+        <v>0.06268849776923373</v>
+      </c>
+      <c r="G76">
+        <v>-0.008282611999014708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.1122388949728276</v>
+        <v>0.116724592055908</v>
       </c>
       <c r="C77">
-        <v>-0.06020195360532947</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.0230614138304805</v>
+      </c>
+      <c r="D77">
+        <v>0.01580089256085956</v>
+      </c>
+      <c r="E77">
+        <v>-0.01236162748696052</v>
+      </c>
+      <c r="F77">
+        <v>0.2622398963861007</v>
+      </c>
+      <c r="G77">
+        <v>-0.8670259820386005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.0829892205839058</v>
+        <v>0.1052245290707677</v>
       </c>
       <c r="C78">
-        <v>-0.0532706271475598</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03244313058692391</v>
+      </c>
+      <c r="D78">
+        <v>0.06936926592508579</v>
+      </c>
+      <c r="E78">
+        <v>-0.06327053525478817</v>
+      </c>
+      <c r="F78">
+        <v>0.005739101061818132</v>
+      </c>
+      <c r="G78">
+        <v>-0.02539605840520096</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1311865655485247</v>
+        <v>0.1498650244790946</v>
       </c>
       <c r="C79">
-        <v>-0.1079953633907534</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06518717240395394</v>
+      </c>
+      <c r="D79">
+        <v>0.02873107914104847</v>
+      </c>
+      <c r="E79">
+        <v>0.02512348751105739</v>
+      </c>
+      <c r="F79">
+        <v>0.0330604366072053</v>
+      </c>
+      <c r="G79">
+        <v>0.01151943483069296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03906450684109236</v>
+        <v>0.03828849715872486</v>
       </c>
       <c r="C80">
-        <v>-0.02165507070809631</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007835491962343706</v>
+      </c>
+      <c r="D80">
+        <v>0.02841627177262657</v>
+      </c>
+      <c r="E80">
+        <v>0.002203493118874643</v>
+      </c>
+      <c r="F80">
+        <v>-0.02425109622952434</v>
+      </c>
+      <c r="G80">
+        <v>0.03137525749274382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1057625951285822</v>
+        <v>0.1202626927749056</v>
       </c>
       <c r="C81">
-        <v>-0.0834214689734846</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.05008662560966381</v>
+      </c>
+      <c r="D81">
+        <v>0.03356194639144065</v>
+      </c>
+      <c r="E81">
+        <v>0.004964861860096951</v>
+      </c>
+      <c r="F81">
+        <v>0.03001713888708422</v>
+      </c>
+      <c r="G81">
+        <v>0.05320749375052695</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1131891231957195</v>
+        <v>0.1253399171375222</v>
       </c>
       <c r="C82">
-        <v>-0.09613288180961127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05961365846381322</v>
+      </c>
+      <c r="D82">
+        <v>0.0365190321555028</v>
+      </c>
+      <c r="E82">
+        <v>0.02580948517410859</v>
+      </c>
+      <c r="F82">
+        <v>0.05294691453337338</v>
+      </c>
+      <c r="G82">
+        <v>0.0368949272117472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07308838717808774</v>
+        <v>0.0739487041615058</v>
       </c>
       <c r="C83">
-        <v>-0.02351293346014425</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.002716136586906017</v>
+      </c>
+      <c r="D83">
+        <v>0.04404107808582226</v>
+      </c>
+      <c r="E83">
+        <v>-0.006744899297998609</v>
+      </c>
+      <c r="F83">
+        <v>0.007107863742338199</v>
+      </c>
+      <c r="G83">
+        <v>0.07237240889949373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02342206465260927</v>
+        <v>0.0320549199147744</v>
       </c>
       <c r="C84">
-        <v>-0.02202968431239242</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01758823328857072</v>
+      </c>
+      <c r="D84">
+        <v>0.02362749578403026</v>
+      </c>
+      <c r="E84">
+        <v>-0.01097871254808619</v>
+      </c>
+      <c r="F84">
+        <v>-0.05033579722384971</v>
+      </c>
+      <c r="G84">
+        <v>0.05564793157157779</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1136461152017504</v>
+        <v>0.118622690417931</v>
       </c>
       <c r="C85">
-        <v>-0.08376431449309979</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04268580542385423</v>
+      </c>
+      <c r="D85">
+        <v>0.03383569299837386</v>
+      </c>
+      <c r="E85">
+        <v>-0.006852001668690443</v>
+      </c>
+      <c r="F85">
+        <v>0.07695238773707808</v>
+      </c>
+      <c r="G85">
+        <v>0.0124741685965469</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04203725905147909</v>
+        <v>0.04537019436937818</v>
       </c>
       <c r="C86">
-        <v>-0.0219181899814772</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.008197669488377662</v>
+      </c>
+      <c r="D86">
+        <v>0.01507039325962292</v>
+      </c>
+      <c r="E86">
+        <v>-0.04736738342817687</v>
+      </c>
+      <c r="F86">
+        <v>0.005291165412471352</v>
+      </c>
+      <c r="G86">
+        <v>0.01717603120983195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1136727658719381</v>
+        <v>0.120864939682695</v>
       </c>
       <c r="C87">
-        <v>-0.09062510358895592</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04662436772440191</v>
+      </c>
+      <c r="D87">
+        <v>0.07143371338068524</v>
+      </c>
+      <c r="E87">
+        <v>-0.02311842016827169</v>
+      </c>
+      <c r="F87">
+        <v>0.03683201341164159</v>
+      </c>
+      <c r="G87">
+        <v>-0.1066779002181675</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05204628649462023</v>
+        <v>0.05783570298200447</v>
       </c>
       <c r="C88">
-        <v>-0.04278637552145296</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02491129720665643</v>
+      </c>
+      <c r="D88">
+        <v>0.02516643866227892</v>
+      </c>
+      <c r="E88">
+        <v>-0.0211186237135037</v>
+      </c>
+      <c r="F88">
+        <v>0.01019290495065459</v>
+      </c>
+      <c r="G88">
+        <v>-0.01641460360651437</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.06949525890661627</v>
+        <v>0.1040588058646881</v>
       </c>
       <c r="C89">
-        <v>-0.0757210253464439</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.08132792274486486</v>
+      </c>
+      <c r="D89">
+        <v>-0.3299608996069996</v>
+      </c>
+      <c r="E89">
+        <v>-0.08061552689142165</v>
+      </c>
+      <c r="F89">
+        <v>0.05860299422810774</v>
+      </c>
+      <c r="G89">
+        <v>0.02387106636153101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06203251913532475</v>
+        <v>0.08508726058560617</v>
       </c>
       <c r="C90">
-        <v>-0.06764720161150532</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06816167220988116</v>
+      </c>
+      <c r="D90">
+        <v>-0.3076839837191873</v>
+      </c>
+      <c r="E90">
+        <v>-0.06574535190437919</v>
+      </c>
+      <c r="F90">
+        <v>-0.02285073394031873</v>
+      </c>
+      <c r="G90">
+        <v>0.01579620025773099</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07464790082638957</v>
+        <v>0.08667464156384933</v>
       </c>
       <c r="C91">
-        <v>-0.06810011879175722</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04403301559458716</v>
+      </c>
+      <c r="D91">
+        <v>0.02910803889176007</v>
+      </c>
+      <c r="E91">
+        <v>-0.009871359820251486</v>
+      </c>
+      <c r="F91">
+        <v>0.007832891246443843</v>
+      </c>
+      <c r="G91">
+        <v>0.02892157406456984</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.07721446518277254</v>
+        <v>0.102653536173597</v>
       </c>
       <c r="C92">
-        <v>-0.07337918073698171</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.07186893516842026</v>
+      </c>
+      <c r="D92">
+        <v>-0.3315612603991642</v>
+      </c>
+      <c r="E92">
+        <v>-0.04405518883831946</v>
+      </c>
+      <c r="F92">
+        <v>0.02235104166729754</v>
+      </c>
+      <c r="G92">
+        <v>0.004687990459744338</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05531787770176449</v>
+        <v>0.08327650137090871</v>
       </c>
       <c r="C93">
-        <v>-0.06283578598704898</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06915259329351774</v>
+      </c>
+      <c r="D93">
+        <v>-0.3012835196625297</v>
+      </c>
+      <c r="E93">
+        <v>-0.03949773867931268</v>
+      </c>
+      <c r="F93">
+        <v>0.03213939420876533</v>
+      </c>
+      <c r="G93">
+        <v>-0.001423364440802541</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1227512629727717</v>
+        <v>0.1275468109030978</v>
       </c>
       <c r="C94">
-        <v>-0.08441179130220766</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03791689992474209</v>
+      </c>
+      <c r="D94">
+        <v>0.05733825912509126</v>
+      </c>
+      <c r="E94">
+        <v>0.02322993621792969</v>
+      </c>
+      <c r="F94">
+        <v>0.03492135843344649</v>
+      </c>
+      <c r="G94">
+        <v>0.03476203321178427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1113470595433991</v>
+        <v>0.1188160883503739</v>
       </c>
       <c r="C95">
-        <v>-0.06193546789499573</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02343970909405643</v>
+      </c>
+      <c r="D95">
+        <v>0.05684815267794781</v>
+      </c>
+      <c r="E95">
+        <v>0.0142784433629724</v>
+      </c>
+      <c r="F95">
+        <v>0.03106787779886717</v>
+      </c>
+      <c r="G95">
+        <v>0.00411318691365274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1959234502259641</v>
+        <v>0.2222494890466978</v>
       </c>
       <c r="C97">
-        <v>-0.07748268963528633</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.03515451513878714</v>
+      </c>
+      <c r="D97">
+        <v>-0.008456916337755707</v>
+      </c>
+      <c r="E97">
+        <v>0.1748029098893958</v>
+      </c>
+      <c r="F97">
+        <v>-0.8816647150512582</v>
+      </c>
+      <c r="G97">
+        <v>-0.2157696121724704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2297226571047174</v>
+        <v>0.2622516703870893</v>
       </c>
       <c r="C98">
-        <v>-0.1321316021247338</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.0647020792482461</v>
+      </c>
+      <c r="D98">
+        <v>0.05012372191656675</v>
+      </c>
+      <c r="E98">
+        <v>0.1618065856864361</v>
+      </c>
+      <c r="F98">
+        <v>0.03003510202366686</v>
+      </c>
+      <c r="G98">
+        <v>0.2827827513340779</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5910055651335442</v>
+        <v>0.3653026212700911</v>
       </c>
       <c r="C99">
-        <v>0.7960553203845143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9181175387257259</v>
+      </c>
+      <c r="D99">
+        <v>-0.08649586050916355</v>
+      </c>
+      <c r="E99">
+        <v>-0.04842066033891572</v>
+      </c>
+      <c r="F99">
+        <v>0.03888665637411157</v>
+      </c>
+      <c r="G99">
+        <v>0.01562683747358645</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03453671275730801</v>
+        <v>0.04320851272706991</v>
       </c>
       <c r="C101">
-        <v>-0.03213386810526853</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02403889198373283</v>
+      </c>
+      <c r="D101">
+        <v>0.01084983355924471</v>
+      </c>
+      <c r="E101">
+        <v>-0.03468066172944478</v>
+      </c>
+      <c r="F101">
+        <v>0.009790196646792225</v>
+      </c>
+      <c r="G101">
+        <v>0.01562266457868786</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
